--- a/Code/Results/Cases/Case_2_118/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_118/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.035432181745591</v>
+        <v>1.057186661957012</v>
       </c>
       <c r="D2">
-        <v>1.053536277375579</v>
+        <v>1.064962594501575</v>
       </c>
       <c r="E2">
-        <v>1.043716714497295</v>
+        <v>1.066467762076237</v>
       </c>
       <c r="F2">
-        <v>1.057869287732668</v>
+        <v>1.07622270676888</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.067018490498609</v>
+        <v>1.055395891465743</v>
       </c>
       <c r="J2">
-        <v>1.056602411651976</v>
+        <v>1.062184394800426</v>
       </c>
       <c r="K2">
-        <v>1.064296944375409</v>
+        <v>1.067677116467527</v>
       </c>
       <c r="L2">
-        <v>1.054598836548823</v>
+        <v>1.069178231209384</v>
       </c>
       <c r="M2">
-        <v>1.068577251723598</v>
+        <v>1.078907206625973</v>
       </c>
       <c r="N2">
-        <v>1.021985508362817</v>
+        <v>1.024418664857259</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.040453235479089</v>
+        <v>1.058222316370262</v>
       </c>
       <c r="D3">
-        <v>1.057570888066471</v>
+        <v>1.065814180466582</v>
       </c>
       <c r="E3">
-        <v>1.048117533474483</v>
+        <v>1.06745584061539</v>
       </c>
       <c r="F3">
-        <v>1.062367983732231</v>
+        <v>1.077209933029698</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.069065417530005</v>
+        <v>1.055749173331715</v>
       </c>
       <c r="J3">
-        <v>1.05989872510463</v>
+        <v>1.062872005342826</v>
       </c>
       <c r="K3">
-        <v>1.067516549407938</v>
+        <v>1.068343918397649</v>
       </c>
       <c r="L3">
-        <v>1.058169645920137</v>
+        <v>1.069981477550918</v>
       </c>
       <c r="M3">
-        <v>1.072260517184653</v>
+        <v>1.079711480788661</v>
       </c>
       <c r="N3">
-        <v>1.023135346140565</v>
+        <v>1.024654500014195</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.043631227869889</v>
+        <v>1.0588925822678</v>
       </c>
       <c r="D4">
-        <v>1.060127311217964</v>
+        <v>1.066365348098445</v>
       </c>
       <c r="E4">
-        <v>1.050912829091345</v>
+        <v>1.068096085510655</v>
       </c>
       <c r="F4">
-        <v>1.065222319397573</v>
+        <v>1.077849352035418</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.070351137110535</v>
+        <v>1.055976592070734</v>
       </c>
       <c r="J4">
-        <v>1.061981064497091</v>
+        <v>1.063316446477383</v>
       </c>
       <c r="K4">
-        <v>1.069550422597642</v>
+        <v>1.068774871913746</v>
       </c>
       <c r="L4">
-        <v>1.060433288402874</v>
+        <v>1.070501503341489</v>
       </c>
       <c r="M4">
-        <v>1.074592486193054</v>
+        <v>1.080231895723413</v>
       </c>
       <c r="N4">
-        <v>1.023861154930698</v>
+        <v>1.024806785839723</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.044950913174967</v>
+        <v>1.059174392597579</v>
       </c>
       <c r="D5">
-        <v>1.061189503947103</v>
+        <v>1.066597090490866</v>
       </c>
       <c r="E5">
-        <v>1.052075911769844</v>
+        <v>1.068365457223547</v>
       </c>
       <c r="F5">
-        <v>1.066409225127673</v>
+        <v>1.078118310909836</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.070882640689696</v>
+        <v>1.056071916571387</v>
       </c>
       <c r="J5">
-        <v>1.062844775310322</v>
+        <v>1.063503172105453</v>
       </c>
       <c r="K5">
-        <v>1.070394021242474</v>
+        <v>1.068955921747708</v>
       </c>
       <c r="L5">
-        <v>1.061374088159</v>
+        <v>1.070720186585602</v>
       </c>
       <c r="M5">
-        <v>1.075560977348534</v>
+        <v>1.080450676554002</v>
       </c>
       <c r="N5">
-        <v>1.024162060919171</v>
+        <v>1.024870731082614</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.04517155394771</v>
+        <v>1.059221711578859</v>
       </c>
       <c r="D6">
-        <v>1.061367129015976</v>
+        <v>1.066636002886417</v>
       </c>
       <c r="E6">
-        <v>1.052270504452201</v>
+        <v>1.068410698372823</v>
       </c>
       <c r="F6">
-        <v>1.06660776016428</v>
+        <v>1.078163478894596</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.070971361560626</v>
+        <v>1.056087905410558</v>
       </c>
       <c r="J6">
-        <v>1.062989121248453</v>
+        <v>1.063534517262922</v>
       </c>
       <c r="K6">
-        <v>1.070535005210498</v>
+        <v>1.068986313583692</v>
       </c>
       <c r="L6">
-        <v>1.061531428276748</v>
+        <v>1.070756908222466</v>
       </c>
       <c r="M6">
-        <v>1.075722907228937</v>
+        <v>1.08048741070659</v>
       </c>
       <c r="N6">
-        <v>1.024212340485002</v>
+        <v>1.02488146332325</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.043648924954707</v>
+        <v>1.058896347711372</v>
       </c>
       <c r="D7">
-        <v>1.060141552925259</v>
+        <v>1.066368444528652</v>
       </c>
       <c r="E7">
-        <v>1.050928417042449</v>
+        <v>1.068099684033653</v>
       </c>
       <c r="F7">
-        <v>1.065238229553744</v>
+        <v>1.077852945299873</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.070358274153658</v>
+        <v>1.05597786691109</v>
       </c>
       <c r="J7">
-        <v>1.061992650909885</v>
+        <v>1.063318941976245</v>
       </c>
       <c r="K7">
-        <v>1.069561739258732</v>
+        <v>1.068777291594472</v>
       </c>
       <c r="L7">
-        <v>1.060445901483313</v>
+        <v>1.070504425145445</v>
       </c>
       <c r="M7">
-        <v>1.074605473308358</v>
+        <v>1.080234819090638</v>
       </c>
       <c r="N7">
-        <v>1.023865192073541</v>
+        <v>1.024807640577002</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.037144164771134</v>
+        <v>1.057536639568082</v>
       </c>
       <c r="D8">
-        <v>1.054911306902242</v>
+        <v>1.065250363683681</v>
       </c>
       <c r="E8">
-        <v>1.045215116329972</v>
+        <v>1.066801502672676</v>
       </c>
       <c r="F8">
-        <v>1.059401675349106</v>
+        <v>1.076556216187852</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067718456353909</v>
+        <v>1.055515528533467</v>
       </c>
       <c r="J8">
-        <v>1.057727145196793</v>
+        <v>1.062416876990828</v>
       </c>
       <c r="K8">
-        <v>1.065395501333033</v>
+        <v>1.0679025710157</v>
       </c>
       <c r="L8">
-        <v>1.055815565619951</v>
+        <v>1.069449635427753</v>
       </c>
       <c r="M8">
-        <v>1.069832923803985</v>
+        <v>1.079179015361888</v>
       </c>
       <c r="N8">
-        <v>1.022377956971549</v>
+        <v>1.024498431593208</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.02510748692755</v>
+        <v>1.055141648764631</v>
       </c>
       <c r="D9">
-        <v>1.045257680917432</v>
+        <v>1.063281223512014</v>
       </c>
       <c r="E9">
-        <v>1.03472446718956</v>
+        <v>1.064520807722249</v>
       </c>
       <c r="F9">
-        <v>1.048659487422021</v>
+        <v>1.074275975955999</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.062756797991095</v>
+        <v>1.05469181667244</v>
       </c>
       <c r="J9">
-        <v>1.0498037575507</v>
+        <v>1.060823596089238</v>
       </c>
       <c r="K9">
-        <v>1.057656807985771</v>
+        <v>1.066357301420617</v>
       </c>
       <c r="L9">
-        <v>1.047278211179149</v>
+        <v>1.067593070299275</v>
       </c>
       <c r="M9">
-        <v>1.061009519888904</v>
+        <v>1.077318548021915</v>
       </c>
       <c r="N9">
-        <v>1.019611250481663</v>
+        <v>1.023951161504689</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.016650360128187</v>
+        <v>1.053545659002142</v>
       </c>
       <c r="D10">
-        <v>1.03849524332095</v>
+        <v>1.061969216202544</v>
       </c>
       <c r="E10">
-        <v>1.027412931592191</v>
+        <v>1.063005006260479</v>
       </c>
       <c r="F10">
-        <v>1.041154925492925</v>
+        <v>1.072759058963983</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.059221196810718</v>
+        <v>1.054136630176501</v>
       </c>
       <c r="J10">
-        <v>1.044218592457355</v>
+        <v>1.059758924038276</v>
       </c>
       <c r="K10">
-        <v>1.052202580565049</v>
+        <v>1.065324525467293</v>
       </c>
       <c r="L10">
-        <v>1.041304269457833</v>
+        <v>1.066356814873566</v>
       </c>
       <c r="M10">
-        <v>1.054818852557379</v>
+        <v>1.076078265765549</v>
       </c>
       <c r="N10">
-        <v>1.017658843676363</v>
+        <v>1.023584711700146</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.01287432726505</v>
+        <v>1.052854737291486</v>
       </c>
       <c r="D11">
-        <v>1.035481568480805</v>
+        <v>1.061401288835975</v>
       </c>
       <c r="E11">
-        <v>1.024163476411093</v>
+        <v>1.062349762223532</v>
       </c>
       <c r="F11">
-        <v>1.037815320943367</v>
+        <v>1.072102994515751</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057631453000748</v>
+        <v>1.053894797068029</v>
       </c>
       <c r="J11">
-        <v>1.041721156587425</v>
+        <v>1.059297323802264</v>
       </c>
       <c r="K11">
-        <v>1.049764001953101</v>
+        <v>1.064876711234831</v>
       </c>
       <c r="L11">
-        <v>1.038643651938499</v>
+        <v>1.065821854883367</v>
       </c>
       <c r="M11">
-        <v>1.052057673760147</v>
+        <v>1.07554122332027</v>
       </c>
       <c r="N11">
-        <v>1.016785440080074</v>
+        <v>1.02342565731709</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.011453548997922</v>
+        <v>1.052598121017824</v>
       </c>
       <c r="D12">
-        <v>1.034348571332596</v>
+        <v>1.061190362989065</v>
       </c>
       <c r="E12">
-        <v>1.022943187311016</v>
+        <v>1.062106542544203</v>
       </c>
       <c r="F12">
-        <v>1.036560507044354</v>
+        <v>1.071859419329528</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.057031675430118</v>
+        <v>1.053804754237534</v>
       </c>
       <c r="J12">
-        <v>1.040780961479564</v>
+        <v>1.059125776482357</v>
       </c>
       <c r="K12">
-        <v>1.048846022589053</v>
+        <v>1.064710280953251</v>
       </c>
       <c r="L12">
-        <v>1.037643648261513</v>
+        <v>1.065623199544246</v>
       </c>
       <c r="M12">
-        <v>1.051019256833703</v>
+        <v>1.075341743493795</v>
       </c>
       <c r="N12">
-        <v>1.016456590824977</v>
+        <v>1.023366520654153</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.011759151878502</v>
+        <v>1.05265316504856</v>
       </c>
       <c r="D13">
-        <v>1.034592230273189</v>
+        <v>1.0612356060385</v>
       </c>
       <c r="E13">
-        <v>1.023205557832797</v>
+        <v>1.062158706417307</v>
       </c>
       <c r="F13">
-        <v>1.036830331179871</v>
+        <v>1.071911661758822</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057160756969047</v>
+        <v>1.053824078468256</v>
       </c>
       <c r="J13">
-        <v>1.040983215041288</v>
+        <v>1.059162577963114</v>
       </c>
       <c r="K13">
-        <v>1.04904349430629</v>
+        <v>1.06474598497776</v>
       </c>
       <c r="L13">
-        <v>1.037858694060091</v>
+        <v>1.065665809399245</v>
       </c>
       <c r="M13">
-        <v>1.05124259125465</v>
+        <v>1.075384532511767</v>
       </c>
       <c r="N13">
-        <v>1.016527334245767</v>
+        <v>1.023379208235642</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.012757262808128</v>
+        <v>1.052833524845329</v>
       </c>
       <c r="D14">
-        <v>1.035388196171264</v>
+        <v>1.061383853072134</v>
       </c>
       <c r="E14">
-        <v>1.024062882718886</v>
+        <v>1.062329654195684</v>
       </c>
       <c r="F14">
-        <v>1.037711894942944</v>
+        <v>1.072082858137753</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057582067097438</v>
+        <v>1.053887358489656</v>
       </c>
       <c r="J14">
-        <v>1.041643699523733</v>
+        <v>1.059283145450066</v>
       </c>
       <c r="K14">
-        <v>1.049688373860922</v>
+        <v>1.064862955933512</v>
       </c>
       <c r="L14">
-        <v>1.038561234490549</v>
+        <v>1.065805432894593</v>
       </c>
       <c r="M14">
-        <v>1.051972103002055</v>
+        <v>1.075524734219299</v>
       </c>
       <c r="N14">
-        <v>1.016758348976877</v>
+        <v>1.023420770219357</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.013369788269856</v>
+        <v>1.052944653489329</v>
       </c>
       <c r="D15">
-        <v>1.035876793928941</v>
+        <v>1.061475196644621</v>
       </c>
       <c r="E15">
-        <v>1.024589323544584</v>
+        <v>1.062435002930358</v>
       </c>
       <c r="F15">
-        <v>1.038253130769333</v>
+        <v>1.072188353313502</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057840407250384</v>
+        <v>1.053926318881637</v>
       </c>
       <c r="J15">
-        <v>1.04204896390888</v>
+        <v>1.059357419345939</v>
       </c>
       <c r="K15">
-        <v>1.050084071292643</v>
+        <v>1.064935013400622</v>
       </c>
       <c r="L15">
-        <v>1.038992518447455</v>
+        <v>1.065891466526616</v>
       </c>
       <c r="M15">
-        <v>1.052419862773476</v>
+        <v>1.075611117350757</v>
       </c>
       <c r="N15">
-        <v>1.016900091063467</v>
+        <v>1.023446370410537</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.016898471842515</v>
+        <v>1.05359151640415</v>
       </c>
       <c r="D16">
-        <v>1.038693387864772</v>
+        <v>1.062006911520582</v>
       </c>
       <c r="E16">
-        <v>1.027626764968674</v>
+        <v>1.063048516050308</v>
       </c>
       <c r="F16">
-        <v>1.04137459902947</v>
+        <v>1.072802616086606</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05932542702731</v>
+        <v>1.054152649649917</v>
       </c>
       <c r="J16">
-        <v>1.044382618618905</v>
+        <v>1.059789546510452</v>
       </c>
       <c r="K16">
-        <v>1.052362748494891</v>
+        <v>1.065354232484329</v>
       </c>
       <c r="L16">
-        <v>1.041479236576907</v>
+        <v>1.066392325756794</v>
       </c>
       <c r="M16">
-        <v>1.055000347804929</v>
+        <v>1.076113907710281</v>
       </c>
       <c r="N16">
-        <v>1.017716200152622</v>
+        <v>1.023595259642387</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.019080668493133</v>
+        <v>1.053997317160499</v>
       </c>
       <c r="D17">
-        <v>1.040436768712534</v>
+        <v>1.062340490917674</v>
       </c>
       <c r="E17">
-        <v>1.02950920090915</v>
+        <v>1.0634336537342</v>
       </c>
       <c r="F17">
-        <v>1.043307948745895</v>
+        <v>1.073188133624202</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060240895931141</v>
+        <v>1.054294237226056</v>
       </c>
       <c r="J17">
-        <v>1.045824849049481</v>
+        <v>1.060060450611509</v>
       </c>
       <c r="K17">
-        <v>1.053771091033909</v>
+        <v>1.065617033000597</v>
       </c>
       <c r="L17">
-        <v>1.043018880756496</v>
+        <v>1.066706594726938</v>
       </c>
       <c r="M17">
-        <v>1.056596976286703</v>
+        <v>1.076429297269418</v>
       </c>
       <c r="N17">
-        <v>1.018220476500169</v>
+        <v>1.02368855253346</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.0203425793087</v>
+        <v>1.054234028584595</v>
       </c>
       <c r="D18">
-        <v>1.041445457090146</v>
+        <v>1.062535079510621</v>
       </c>
       <c r="E18">
-        <v>1.030599189762834</v>
+        <v>1.063658404890206</v>
       </c>
       <c r="F18">
-        <v>1.0444270048497</v>
+        <v>1.073413073795768</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060769231144513</v>
+        <v>1.054376684523071</v>
       </c>
       <c r="J18">
-        <v>1.046658500607212</v>
+        <v>1.060218407427643</v>
       </c>
       <c r="K18">
-        <v>1.054585182714524</v>
+        <v>1.065770260693621</v>
       </c>
       <c r="L18">
-        <v>1.043909847941542</v>
+        <v>1.066889935923052</v>
       </c>
       <c r="M18">
-        <v>1.057520536969779</v>
+        <v>1.076613259400396</v>
       </c>
       <c r="N18">
-        <v>1.018511926764945</v>
+        <v>1.023742932098589</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.02077103556625</v>
+        <v>1.054314743560406</v>
       </c>
       <c r="D19">
-        <v>1.041788025096247</v>
+        <v>1.062601432122385</v>
       </c>
       <c r="E19">
-        <v>1.03096951202051</v>
+        <v>1.063735057331548</v>
       </c>
       <c r="F19">
-        <v>1.044807132968953</v>
+        <v>1.073489785168545</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060948435612945</v>
+        <v>1.054404773451232</v>
       </c>
       <c r="J19">
-        <v>1.046941488380977</v>
+        <v>1.060272256951053</v>
       </c>
       <c r="K19">
-        <v>1.054861535239402</v>
+        <v>1.065822497291746</v>
       </c>
       <c r="L19">
-        <v>1.044212462145004</v>
+        <v>1.066952456186196</v>
       </c>
       <c r="M19">
-        <v>1.057834156878158</v>
+        <v>1.076675985844289</v>
       </c>
       <c r="N19">
-        <v>1.018610854708957</v>
+        <v>1.023761467911347</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.018847677116484</v>
+        <v>1.053953777058914</v>
       </c>
       <c r="D20">
-        <v>1.040250573381818</v>
+        <v>1.062304699204162</v>
       </c>
       <c r="E20">
-        <v>1.029308066501365</v>
+        <v>1.063392321047617</v>
       </c>
       <c r="F20">
-        <v>1.043101417289828</v>
+        <v>1.07314676354995</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060143261472662</v>
+        <v>1.054279060527208</v>
       </c>
       <c r="J20">
-        <v>1.045670899739325</v>
+        <v>1.060031391055441</v>
       </c>
       <c r="K20">
-        <v>1.05362075602829</v>
+        <v>1.065588843134127</v>
       </c>
       <c r="L20">
-        <v>1.042854428388835</v>
+        <v>1.066672873179743</v>
       </c>
       <c r="M20">
-        <v>1.056426477059465</v>
+        <v>1.076395458874952</v>
       </c>
       <c r="N20">
-        <v>1.018166651753145</v>
+        <v>1.023678546873484</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.012463855112353</v>
+        <v>1.052780412751413</v>
       </c>
       <c r="D21">
-        <v>1.035154185264826</v>
+        <v>1.061340197247585</v>
       </c>
       <c r="E21">
-        <v>1.023810795269795</v>
+        <v>1.062279309716723</v>
       </c>
       <c r="F21">
-        <v>1.037452698884811</v>
+        <v>1.072032441854277</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057458261541012</v>
+        <v>1.053868730041206</v>
       </c>
       <c r="J21">
-        <v>1.041449554958888</v>
+        <v>1.059247643769702</v>
       </c>
       <c r="K21">
-        <v>1.049498814553286</v>
+        <v>1.064828513443275</v>
       </c>
       <c r="L21">
-        <v>1.0383546830419</v>
+        <v>1.06576431579845</v>
       </c>
       <c r="M21">
-        <v>1.051757638874995</v>
+        <v>1.075483448261672</v>
       </c>
       <c r="N21">
-        <v>1.016690445006222</v>
+        <v>1.023408532817044</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.008344255300486</v>
+        <v>1.052042803992532</v>
       </c>
       <c r="D22">
-        <v>1.031870881717593</v>
+        <v>1.060733936916183</v>
       </c>
       <c r="E22">
-        <v>1.02027709828247</v>
+        <v>1.061580482616356</v>
       </c>
       <c r="F22">
-        <v>1.03381773833679</v>
+        <v>1.071332497097306</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055716183839234</v>
+        <v>1.053609493705616</v>
       </c>
       <c r="J22">
-        <v>1.038722529790776</v>
+        <v>1.058754359178024</v>
       </c>
       <c r="K22">
-        <v>1.046836349953473</v>
+        <v>1.064349931076936</v>
       </c>
       <c r="L22">
-        <v>1.035457287298684</v>
+        <v>1.065193374417861</v>
       </c>
       <c r="M22">
-        <v>1.048747764496733</v>
+        <v>1.074910040761706</v>
       </c>
       <c r="N22">
-        <v>1.015736551912967</v>
+        <v>1.023238435826264</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.010538541055257</v>
+        <v>1.052433811870168</v>
       </c>
       <c r="D23">
-        <v>1.03361917354538</v>
+        <v>1.06105531160656</v>
       </c>
       <c r="E23">
-        <v>1.022157974691065</v>
+        <v>1.061950852172604</v>
       </c>
       <c r="F23">
-        <v>1.035752888077601</v>
+        <v>1.07170348701879</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056644958797005</v>
+        <v>1.053747037778842</v>
       </c>
       <c r="J23">
-        <v>1.040175322816427</v>
+        <v>1.059015907085379</v>
       </c>
       <c r="K23">
-        <v>1.048254712398207</v>
+        <v>1.064603687049411</v>
       </c>
       <c r="L23">
-        <v>1.036999943581793</v>
+        <v>1.065496012188599</v>
       </c>
       <c r="M23">
-        <v>1.050350650273378</v>
+        <v>1.07521401384832</v>
       </c>
       <c r="N23">
-        <v>1.016244747513801</v>
+        <v>1.023328638528702</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.018952989582364</v>
+        <v>1.053973450911065</v>
       </c>
       <c r="D24">
-        <v>1.04033473231169</v>
+        <v>1.06232087188516</v>
       </c>
       <c r="E24">
-        <v>1.029398975163192</v>
+        <v>1.063410997179359</v>
       </c>
       <c r="F24">
-        <v>1.043194766588082</v>
+        <v>1.073165456676113</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060187395685827</v>
+        <v>1.054285918651549</v>
       </c>
       <c r="J24">
-        <v>1.04574048617259</v>
+        <v>1.060044521993917</v>
       </c>
       <c r="K24">
-        <v>1.053688708677364</v>
+        <v>1.065601581104862</v>
       </c>
       <c r="L24">
-        <v>1.042928759171745</v>
+        <v>1.06668811039211</v>
       </c>
       <c r="M24">
-        <v>1.056503542145758</v>
+        <v>1.076410748986546</v>
       </c>
       <c r="N24">
-        <v>1.018190981122532</v>
+        <v>1.023683068113622</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.028291909394807</v>
+        <v>1.055760693523403</v>
       </c>
       <c r="D25">
-        <v>1.047808419591383</v>
+        <v>1.063790163642956</v>
       </c>
       <c r="E25">
-        <v>1.037489980108295</v>
+        <v>1.06510960367189</v>
       </c>
       <c r="F25">
-        <v>1.0514943189018</v>
+        <v>1.0748649041181</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.064078153514509</v>
+        <v>1.054905832504664</v>
       </c>
       <c r="J25">
-        <v>1.051903261706979</v>
+        <v>1.061235936907628</v>
       </c>
       <c r="K25">
-        <v>1.059707284930199</v>
+        <v>1.066757250164677</v>
       </c>
       <c r="L25">
-        <v>1.049532910141976</v>
+        <v>1.068072783180826</v>
       </c>
       <c r="M25">
-        <v>1.063342585376277</v>
+        <v>1.077799520720382</v>
       </c>
       <c r="N25">
-        <v>1.020344776423246</v>
+        <v>1.02409292748266</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_118/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_118/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.057186661957012</v>
+        <v>1.035432181745592</v>
       </c>
       <c r="D2">
-        <v>1.064962594501575</v>
+        <v>1.05353627737558</v>
       </c>
       <c r="E2">
-        <v>1.066467762076237</v>
+        <v>1.043716714497296</v>
       </c>
       <c r="F2">
-        <v>1.07622270676888</v>
+        <v>1.05786928773267</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055395891465743</v>
+        <v>1.067018490498609</v>
       </c>
       <c r="J2">
-        <v>1.062184394800426</v>
+        <v>1.056602411651977</v>
       </c>
       <c r="K2">
-        <v>1.067677116467527</v>
+        <v>1.06429694437541</v>
       </c>
       <c r="L2">
-        <v>1.069178231209384</v>
+        <v>1.054598836548825</v>
       </c>
       <c r="M2">
-        <v>1.078907206625973</v>
+        <v>1.068577251723599</v>
       </c>
       <c r="N2">
-        <v>1.024418664857259</v>
+        <v>1.021985508362818</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.058222316370262</v>
+        <v>1.040453235479088</v>
       </c>
       <c r="D3">
-        <v>1.065814180466582</v>
+        <v>1.057570888066471</v>
       </c>
       <c r="E3">
-        <v>1.06745584061539</v>
+        <v>1.048117533474482</v>
       </c>
       <c r="F3">
-        <v>1.077209933029698</v>
+        <v>1.06236798373223</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055749173331715</v>
+        <v>1.069065417530005</v>
       </c>
       <c r="J3">
-        <v>1.062872005342826</v>
+        <v>1.05989872510463</v>
       </c>
       <c r="K3">
-        <v>1.068343918397649</v>
+        <v>1.067516549407937</v>
       </c>
       <c r="L3">
-        <v>1.069981477550918</v>
+        <v>1.058169645920136</v>
       </c>
       <c r="M3">
-        <v>1.079711480788661</v>
+        <v>1.072260517184653</v>
       </c>
       <c r="N3">
-        <v>1.024654500014195</v>
+        <v>1.023135346140565</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0588925822678</v>
+        <v>1.043631227869889</v>
       </c>
       <c r="D4">
-        <v>1.066365348098445</v>
+        <v>1.060127311217965</v>
       </c>
       <c r="E4">
-        <v>1.068096085510655</v>
+        <v>1.050912829091345</v>
       </c>
       <c r="F4">
-        <v>1.077849352035418</v>
+        <v>1.065222319397574</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055976592070734</v>
+        <v>1.070351137110535</v>
       </c>
       <c r="J4">
-        <v>1.063316446477383</v>
+        <v>1.061981064497091</v>
       </c>
       <c r="K4">
-        <v>1.068774871913746</v>
+        <v>1.069550422597642</v>
       </c>
       <c r="L4">
-        <v>1.070501503341489</v>
+        <v>1.060433288402874</v>
       </c>
       <c r="M4">
-        <v>1.080231895723413</v>
+        <v>1.074592486193055</v>
       </c>
       <c r="N4">
-        <v>1.024806785839723</v>
+        <v>1.023861154930698</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059174392597579</v>
+        <v>1.044950913174966</v>
       </c>
       <c r="D5">
-        <v>1.066597090490866</v>
+        <v>1.061189503947102</v>
       </c>
       <c r="E5">
-        <v>1.068365457223547</v>
+        <v>1.052075911769843</v>
       </c>
       <c r="F5">
-        <v>1.078118310909836</v>
+        <v>1.066409225127672</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056071916571387</v>
+        <v>1.070882640689695</v>
       </c>
       <c r="J5">
-        <v>1.063503172105453</v>
+        <v>1.062844775310321</v>
       </c>
       <c r="K5">
-        <v>1.068955921747708</v>
+        <v>1.070394021242473</v>
       </c>
       <c r="L5">
-        <v>1.070720186585602</v>
+        <v>1.061374088158999</v>
       </c>
       <c r="M5">
-        <v>1.080450676554002</v>
+        <v>1.075560977348532</v>
       </c>
       <c r="N5">
-        <v>1.024870731082614</v>
+        <v>1.02416206091917</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.059221711578859</v>
+        <v>1.04517155394771</v>
       </c>
       <c r="D6">
-        <v>1.066636002886417</v>
+        <v>1.061367129015976</v>
       </c>
       <c r="E6">
-        <v>1.068410698372823</v>
+        <v>1.052270504452201</v>
       </c>
       <c r="F6">
-        <v>1.078163478894596</v>
+        <v>1.06660776016428</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056087905410558</v>
+        <v>1.070971361560626</v>
       </c>
       <c r="J6">
-        <v>1.063534517262922</v>
+        <v>1.062989121248453</v>
       </c>
       <c r="K6">
-        <v>1.068986313583692</v>
+        <v>1.070535005210498</v>
       </c>
       <c r="L6">
-        <v>1.070756908222466</v>
+        <v>1.061531428276748</v>
       </c>
       <c r="M6">
-        <v>1.08048741070659</v>
+        <v>1.075722907228937</v>
       </c>
       <c r="N6">
-        <v>1.02488146332325</v>
+        <v>1.024212340485002</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.058896347711372</v>
+        <v>1.043648924954708</v>
       </c>
       <c r="D7">
-        <v>1.066368444528652</v>
+        <v>1.06014155292526</v>
       </c>
       <c r="E7">
-        <v>1.068099684033653</v>
+        <v>1.050928417042449</v>
       </c>
       <c r="F7">
-        <v>1.077852945299873</v>
+        <v>1.065238229553744</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05597786691109</v>
+        <v>1.070358274153658</v>
       </c>
       <c r="J7">
-        <v>1.063318941976245</v>
+        <v>1.061992650909886</v>
       </c>
       <c r="K7">
-        <v>1.068777291594472</v>
+        <v>1.069561739258733</v>
       </c>
       <c r="L7">
-        <v>1.070504425145445</v>
+        <v>1.060445901483314</v>
       </c>
       <c r="M7">
-        <v>1.080234819090638</v>
+        <v>1.074605473308359</v>
       </c>
       <c r="N7">
-        <v>1.024807640577002</v>
+        <v>1.023865192073541</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.057536639568082</v>
+        <v>1.037144164771135</v>
       </c>
       <c r="D8">
-        <v>1.065250363683681</v>
+        <v>1.054911306902243</v>
       </c>
       <c r="E8">
-        <v>1.066801502672676</v>
+        <v>1.045215116329973</v>
       </c>
       <c r="F8">
-        <v>1.076556216187852</v>
+        <v>1.059401675349107</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055515528533467</v>
+        <v>1.067718456353909</v>
       </c>
       <c r="J8">
-        <v>1.062416876990828</v>
+        <v>1.057727145196793</v>
       </c>
       <c r="K8">
-        <v>1.0679025710157</v>
+        <v>1.065395501333034</v>
       </c>
       <c r="L8">
-        <v>1.069449635427753</v>
+        <v>1.055815565619952</v>
       </c>
       <c r="M8">
-        <v>1.079179015361888</v>
+        <v>1.069832923803986</v>
       </c>
       <c r="N8">
-        <v>1.024498431593208</v>
+        <v>1.02237795697155</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.055141648764631</v>
+        <v>1.025107486927551</v>
       </c>
       <c r="D9">
-        <v>1.063281223512014</v>
+        <v>1.045257680917433</v>
       </c>
       <c r="E9">
-        <v>1.064520807722249</v>
+        <v>1.03472446718956</v>
       </c>
       <c r="F9">
-        <v>1.074275975955999</v>
+        <v>1.048659487422021</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05469181667244</v>
+        <v>1.062756797991095</v>
       </c>
       <c r="J9">
-        <v>1.060823596089238</v>
+        <v>1.049803757550701</v>
       </c>
       <c r="K9">
-        <v>1.066357301420617</v>
+        <v>1.057656807985772</v>
       </c>
       <c r="L9">
-        <v>1.067593070299275</v>
+        <v>1.047278211179148</v>
       </c>
       <c r="M9">
-        <v>1.077318548021915</v>
+        <v>1.061009519888904</v>
       </c>
       <c r="N9">
-        <v>1.023951161504689</v>
+        <v>1.019611250481663</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.053545659002142</v>
+        <v>1.016650360128188</v>
       </c>
       <c r="D10">
-        <v>1.061969216202544</v>
+        <v>1.038495243320951</v>
       </c>
       <c r="E10">
-        <v>1.063005006260479</v>
+        <v>1.027412931592191</v>
       </c>
       <c r="F10">
-        <v>1.072759058963983</v>
+        <v>1.041154925492926</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054136630176501</v>
+        <v>1.059221196810718</v>
       </c>
       <c r="J10">
-        <v>1.059758924038276</v>
+        <v>1.044218592457356</v>
       </c>
       <c r="K10">
-        <v>1.065324525467293</v>
+        <v>1.05220258056505</v>
       </c>
       <c r="L10">
-        <v>1.066356814873566</v>
+        <v>1.041304269457834</v>
       </c>
       <c r="M10">
-        <v>1.076078265765549</v>
+        <v>1.05481885255738</v>
       </c>
       <c r="N10">
-        <v>1.023584711700146</v>
+        <v>1.017658843676364</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.052854737291486</v>
+        <v>1.01287432726505</v>
       </c>
       <c r="D11">
-        <v>1.061401288835975</v>
+        <v>1.035481568480805</v>
       </c>
       <c r="E11">
-        <v>1.062349762223532</v>
+        <v>1.024163476411094</v>
       </c>
       <c r="F11">
-        <v>1.072102994515751</v>
+        <v>1.037815320943368</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053894797068029</v>
+        <v>1.057631453000748</v>
       </c>
       <c r="J11">
-        <v>1.059297323802264</v>
+        <v>1.041721156587425</v>
       </c>
       <c r="K11">
-        <v>1.064876711234831</v>
+        <v>1.049764001953101</v>
       </c>
       <c r="L11">
-        <v>1.065821854883367</v>
+        <v>1.038643651938499</v>
       </c>
       <c r="M11">
-        <v>1.07554122332027</v>
+        <v>1.052057673760148</v>
       </c>
       <c r="N11">
-        <v>1.02342565731709</v>
+        <v>1.016785440080075</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.052598121017824</v>
+        <v>1.011453548997921</v>
       </c>
       <c r="D12">
-        <v>1.061190362989065</v>
+        <v>1.034348571332596</v>
       </c>
       <c r="E12">
-        <v>1.062106542544203</v>
+        <v>1.022943187311016</v>
       </c>
       <c r="F12">
-        <v>1.071859419329528</v>
+        <v>1.036560507044354</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053804754237534</v>
+        <v>1.057031675430118</v>
       </c>
       <c r="J12">
-        <v>1.059125776482357</v>
+        <v>1.040780961479564</v>
       </c>
       <c r="K12">
-        <v>1.064710280953251</v>
+        <v>1.048846022589053</v>
       </c>
       <c r="L12">
-        <v>1.065623199544246</v>
+        <v>1.037643648261513</v>
       </c>
       <c r="M12">
-        <v>1.075341743493795</v>
+        <v>1.051019256833702</v>
       </c>
       <c r="N12">
-        <v>1.023366520654153</v>
+        <v>1.016456590824977</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.05265316504856</v>
+        <v>1.011759151878502</v>
       </c>
       <c r="D13">
-        <v>1.0612356060385</v>
+        <v>1.034592230273188</v>
       </c>
       <c r="E13">
-        <v>1.062158706417307</v>
+        <v>1.023205557832798</v>
       </c>
       <c r="F13">
-        <v>1.071911661758822</v>
+        <v>1.036830331179871</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053824078468256</v>
+        <v>1.057160756969047</v>
       </c>
       <c r="J13">
-        <v>1.059162577963114</v>
+        <v>1.040983215041287</v>
       </c>
       <c r="K13">
-        <v>1.06474598497776</v>
+        <v>1.04904349430629</v>
       </c>
       <c r="L13">
-        <v>1.065665809399245</v>
+        <v>1.037858694060092</v>
       </c>
       <c r="M13">
-        <v>1.075384532511767</v>
+        <v>1.05124259125465</v>
       </c>
       <c r="N13">
-        <v>1.023379208235642</v>
+        <v>1.016527334245767</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.052833524845329</v>
+        <v>1.01275726280813</v>
       </c>
       <c r="D14">
-        <v>1.061383853072134</v>
+        <v>1.035388196171266</v>
       </c>
       <c r="E14">
-        <v>1.062329654195684</v>
+        <v>1.024062882718888</v>
       </c>
       <c r="F14">
-        <v>1.072082858137753</v>
+        <v>1.037711894942946</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053887358489656</v>
+        <v>1.057582067097439</v>
       </c>
       <c r="J14">
-        <v>1.059283145450066</v>
+        <v>1.041643699523735</v>
       </c>
       <c r="K14">
-        <v>1.064862955933512</v>
+        <v>1.049688373860923</v>
       </c>
       <c r="L14">
-        <v>1.065805432894593</v>
+        <v>1.038561234490551</v>
       </c>
       <c r="M14">
-        <v>1.075524734219299</v>
+        <v>1.051972103002057</v>
       </c>
       <c r="N14">
-        <v>1.023420770219357</v>
+        <v>1.016758348976878</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.052944653489329</v>
+        <v>1.013369788269856</v>
       </c>
       <c r="D15">
-        <v>1.061475196644621</v>
+        <v>1.035876793928941</v>
       </c>
       <c r="E15">
-        <v>1.062435002930358</v>
+        <v>1.024589323544584</v>
       </c>
       <c r="F15">
-        <v>1.072188353313502</v>
+        <v>1.038253130769333</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053926318881637</v>
+        <v>1.057840407250384</v>
       </c>
       <c r="J15">
-        <v>1.059357419345939</v>
+        <v>1.04204896390888</v>
       </c>
       <c r="K15">
-        <v>1.064935013400622</v>
+        <v>1.050084071292643</v>
       </c>
       <c r="L15">
-        <v>1.065891466526616</v>
+        <v>1.038992518447455</v>
       </c>
       <c r="M15">
-        <v>1.075611117350757</v>
+        <v>1.052419862773476</v>
       </c>
       <c r="N15">
-        <v>1.023446370410537</v>
+        <v>1.016900091063467</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.05359151640415</v>
+        <v>1.016898471842516</v>
       </c>
       <c r="D16">
-        <v>1.062006911520582</v>
+        <v>1.038693387864773</v>
       </c>
       <c r="E16">
-        <v>1.063048516050308</v>
+        <v>1.027626764968674</v>
       </c>
       <c r="F16">
-        <v>1.072802616086606</v>
+        <v>1.041374599029471</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054152649649917</v>
+        <v>1.05932542702731</v>
       </c>
       <c r="J16">
-        <v>1.059789546510452</v>
+        <v>1.044382618618906</v>
       </c>
       <c r="K16">
-        <v>1.065354232484329</v>
+        <v>1.052362748494892</v>
       </c>
       <c r="L16">
-        <v>1.066392325756794</v>
+        <v>1.041479236576907</v>
       </c>
       <c r="M16">
-        <v>1.076113907710281</v>
+        <v>1.05500034780493</v>
       </c>
       <c r="N16">
-        <v>1.023595259642387</v>
+        <v>1.017716200152622</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.053997317160499</v>
+        <v>1.019080668493133</v>
       </c>
       <c r="D17">
-        <v>1.062340490917674</v>
+        <v>1.040436768712534</v>
       </c>
       <c r="E17">
-        <v>1.0634336537342</v>
+        <v>1.02950920090915</v>
       </c>
       <c r="F17">
-        <v>1.073188133624202</v>
+        <v>1.043307948745894</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054294237226056</v>
+        <v>1.060240895931141</v>
       </c>
       <c r="J17">
-        <v>1.060060450611509</v>
+        <v>1.04582484904948</v>
       </c>
       <c r="K17">
-        <v>1.065617033000597</v>
+        <v>1.053771091033908</v>
       </c>
       <c r="L17">
-        <v>1.066706594726938</v>
+        <v>1.043018880756496</v>
       </c>
       <c r="M17">
-        <v>1.076429297269418</v>
+        <v>1.056596976286702</v>
       </c>
       <c r="N17">
-        <v>1.02368855253346</v>
+        <v>1.018220476500169</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.054234028584595</v>
+        <v>1.020342579308701</v>
       </c>
       <c r="D18">
-        <v>1.062535079510621</v>
+        <v>1.041445457090146</v>
       </c>
       <c r="E18">
-        <v>1.063658404890206</v>
+        <v>1.030599189762834</v>
       </c>
       <c r="F18">
-        <v>1.073413073795768</v>
+        <v>1.0444270048497</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054376684523071</v>
+        <v>1.060769231144513</v>
       </c>
       <c r="J18">
-        <v>1.060218407427643</v>
+        <v>1.046658500607212</v>
       </c>
       <c r="K18">
-        <v>1.065770260693621</v>
+        <v>1.054585182714524</v>
       </c>
       <c r="L18">
-        <v>1.066889935923052</v>
+        <v>1.043909847941542</v>
       </c>
       <c r="M18">
-        <v>1.076613259400396</v>
+        <v>1.057520536969779</v>
       </c>
       <c r="N18">
-        <v>1.023742932098589</v>
+        <v>1.018511926764945</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.054314743560406</v>
+        <v>1.020771035566252</v>
       </c>
       <c r="D19">
-        <v>1.062601432122385</v>
+        <v>1.041788025096248</v>
       </c>
       <c r="E19">
-        <v>1.063735057331548</v>
+        <v>1.030969512020511</v>
       </c>
       <c r="F19">
-        <v>1.073489785168545</v>
+        <v>1.044807132968955</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054404773451232</v>
+        <v>1.060948435612946</v>
       </c>
       <c r="J19">
-        <v>1.060272256951053</v>
+        <v>1.046941488380979</v>
       </c>
       <c r="K19">
-        <v>1.065822497291746</v>
+        <v>1.054861535239404</v>
       </c>
       <c r="L19">
-        <v>1.066952456186196</v>
+        <v>1.044212462145005</v>
       </c>
       <c r="M19">
-        <v>1.076675985844289</v>
+        <v>1.05783415687816</v>
       </c>
       <c r="N19">
-        <v>1.023761467911347</v>
+        <v>1.018610854708957</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.053953777058914</v>
+        <v>1.018847677116485</v>
       </c>
       <c r="D20">
-        <v>1.062304699204162</v>
+        <v>1.040250573381818</v>
       </c>
       <c r="E20">
-        <v>1.063392321047617</v>
+        <v>1.029308066501365</v>
       </c>
       <c r="F20">
-        <v>1.07314676354995</v>
+        <v>1.043101417289828</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054279060527208</v>
+        <v>1.060143261472662</v>
       </c>
       <c r="J20">
-        <v>1.060031391055441</v>
+        <v>1.045670899739326</v>
       </c>
       <c r="K20">
-        <v>1.065588843134127</v>
+        <v>1.05362075602829</v>
       </c>
       <c r="L20">
-        <v>1.066672873179743</v>
+        <v>1.042854428388835</v>
       </c>
       <c r="M20">
-        <v>1.076395458874952</v>
+        <v>1.056426477059466</v>
       </c>
       <c r="N20">
-        <v>1.023678546873484</v>
+        <v>1.018166651753145</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.052780412751413</v>
+        <v>1.012463855112354</v>
       </c>
       <c r="D21">
-        <v>1.061340197247585</v>
+        <v>1.035154185264827</v>
       </c>
       <c r="E21">
-        <v>1.062279309716723</v>
+        <v>1.023810795269796</v>
       </c>
       <c r="F21">
-        <v>1.072032441854277</v>
+        <v>1.037452698884813</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053868730041206</v>
+        <v>1.057458261541012</v>
       </c>
       <c r="J21">
-        <v>1.059247643769702</v>
+        <v>1.041449554958889</v>
       </c>
       <c r="K21">
-        <v>1.064828513443275</v>
+        <v>1.049498814553287</v>
       </c>
       <c r="L21">
-        <v>1.06576431579845</v>
+        <v>1.038354683041901</v>
       </c>
       <c r="M21">
-        <v>1.075483448261672</v>
+        <v>1.051757638874996</v>
       </c>
       <c r="N21">
-        <v>1.023408532817044</v>
+        <v>1.016690445006223</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.052042803992532</v>
+        <v>1.008344255300487</v>
       </c>
       <c r="D22">
-        <v>1.060733936916183</v>
+        <v>1.031870881717594</v>
       </c>
       <c r="E22">
-        <v>1.061580482616356</v>
+        <v>1.020277098282471</v>
       </c>
       <c r="F22">
-        <v>1.071332497097306</v>
+        <v>1.033817738336791</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053609493705616</v>
+        <v>1.055716183839235</v>
       </c>
       <c r="J22">
-        <v>1.058754359178024</v>
+        <v>1.038722529790777</v>
       </c>
       <c r="K22">
-        <v>1.064349931076936</v>
+        <v>1.046836349953473</v>
       </c>
       <c r="L22">
-        <v>1.065193374417861</v>
+        <v>1.035457287298685</v>
       </c>
       <c r="M22">
-        <v>1.074910040761706</v>
+        <v>1.048747764496734</v>
       </c>
       <c r="N22">
-        <v>1.023238435826264</v>
+        <v>1.015736551912967</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.052433811870168</v>
+        <v>1.010538541055256</v>
       </c>
       <c r="D23">
-        <v>1.06105531160656</v>
+        <v>1.033619173545379</v>
       </c>
       <c r="E23">
-        <v>1.061950852172604</v>
+        <v>1.022157974691065</v>
       </c>
       <c r="F23">
-        <v>1.07170348701879</v>
+        <v>1.035752888077601</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053747037778842</v>
+        <v>1.056644958797004</v>
       </c>
       <c r="J23">
-        <v>1.059015907085379</v>
+        <v>1.040175322816425</v>
       </c>
       <c r="K23">
-        <v>1.064603687049411</v>
+        <v>1.048254712398205</v>
       </c>
       <c r="L23">
-        <v>1.065496012188599</v>
+        <v>1.036999943581792</v>
       </c>
       <c r="M23">
-        <v>1.07521401384832</v>
+        <v>1.050350650273376</v>
       </c>
       <c r="N23">
-        <v>1.023328638528702</v>
+        <v>1.016244747513801</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.053973450911065</v>
+        <v>1.018952989582363</v>
       </c>
       <c r="D24">
-        <v>1.06232087188516</v>
+        <v>1.04033473231169</v>
       </c>
       <c r="E24">
-        <v>1.063410997179359</v>
+        <v>1.029398975163191</v>
       </c>
       <c r="F24">
-        <v>1.073165456676113</v>
+        <v>1.043194766588081</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054285918651549</v>
+        <v>1.060187395685827</v>
       </c>
       <c r="J24">
-        <v>1.060044521993917</v>
+        <v>1.045740486172589</v>
       </c>
       <c r="K24">
-        <v>1.065601581104862</v>
+        <v>1.053688708677363</v>
       </c>
       <c r="L24">
-        <v>1.06668811039211</v>
+        <v>1.042928759171744</v>
       </c>
       <c r="M24">
-        <v>1.076410748986546</v>
+        <v>1.056503542145757</v>
       </c>
       <c r="N24">
-        <v>1.023683068113622</v>
+        <v>1.018190981122531</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055760693523403</v>
+        <v>1.028291909394807</v>
       </c>
       <c r="D25">
-        <v>1.063790163642956</v>
+        <v>1.047808419591383</v>
       </c>
       <c r="E25">
-        <v>1.06510960367189</v>
+        <v>1.037489980108295</v>
       </c>
       <c r="F25">
-        <v>1.0748649041181</v>
+        <v>1.0514943189018</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054905832504664</v>
+        <v>1.064078153514509</v>
       </c>
       <c r="J25">
-        <v>1.061235936907628</v>
+        <v>1.051903261706979</v>
       </c>
       <c r="K25">
-        <v>1.066757250164677</v>
+        <v>1.059707284930199</v>
       </c>
       <c r="L25">
-        <v>1.068072783180826</v>
+        <v>1.049532910141977</v>
       </c>
       <c r="M25">
-        <v>1.077799520720382</v>
+        <v>1.063342585376277</v>
       </c>
       <c r="N25">
-        <v>1.02409292748266</v>
+        <v>1.020344776423246</v>
       </c>
     </row>
   </sheetData>
